--- a/old_database/crypto/fastqFiles/fastq_2651.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_2651.xlsx
@@ -37,7 +37,7 @@
     <t>01.26.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2651</t>
   </si>
   <si>
     <t>sequence/run_2651_samples/Brent_1_GTAC_1_TGAGGTTATC_S2_R1_001.fastq.gz</t>
